--- a/medicine/Enfance/Thierry_Crifo/Thierry_Crifo.xlsx
+++ b/medicine/Enfance/Thierry_Crifo/Thierry_Crifo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thierry Crifo, né le 16 octobre 1954 à Tunis, est un écrivain et scénariste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une première année de droit et cinq ans consacrés au cinéma, aux échecs et aux voyages, Thierry Crifo se retrouve sur les plateaux de télévision en 1981 où il exerce plusieurs métiers (tireur de câbles, pousseur de caméras, assistant caméraman et caméraman) jusqu’en 1993. C'est pendant cette période que son premier roman et une quinzaine de scénarios pour des séries télévisées sur TF1 voient le jour. Il se consacre à présent pleinement à l'écriture, tant pour la jeunesse que pour les adultes, alternant romans et nouvelles. Il anime également des ateliers d'écriture en milieu scolaire et carcéral.
 </t>
